--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>DamageType</t>
   </si>
 </sst>
 </file>
@@ -289,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:N12" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:N12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:N13" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:N13"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -623,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,16 +683,16 @@
         <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
         <v>57</v>
@@ -691,419 +706,387 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>6000</v>
-      </c>
-      <c r="E3">
-        <v>1800</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="E4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E5">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E6">
-        <v>1320</v>
+        <v>3200</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1720</v>
+        <v>1320</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1460</v>
+        <v>1720</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1720</v>
+        <v>1460</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1600</v>
+        <v>1720</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1115,23 +1098,60 @@
         <v>11</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>301</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>800</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>6000</v>
       </c>
       <c r="E4">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>8000</v>
       </c>
       <c r="E5">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -846,7 +846,7 @@
         <v>10000</v>
       </c>
       <c r="E6">
-        <v>3200</v>
+        <v>3010</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1320</v>
+        <v>690</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1720</v>
+        <v>650</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1460</v>
+        <v>1050</v>
       </c>
       <c r="F9">
         <v>13</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1720</v>
+        <v>1250</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1600</v>
+        <v>1020</v>
       </c>
       <c r="F11">
         <v>15</v>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#skill.xlsx
@@ -93,30 +93,6 @@
     <t>精英怪物普攻1</t>
   </si>
   <si>
-    <t>dagger_skill1</t>
-  </si>
-  <si>
-    <t>dagger_skill2</t>
-  </si>
-  <si>
-    <t>dagger_skill3</t>
-  </si>
-  <si>
-    <t>dagger_atk1</t>
-  </si>
-  <si>
-    <t>dagger_atk2</t>
-  </si>
-  <si>
-    <t>dagger_atk3</t>
-  </si>
-  <si>
-    <t>dagger_atk4</t>
-  </si>
-  <si>
-    <t>dagger_atk5</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
@@ -211,6 +187,30 @@
   </si>
   <si>
     <t>DamageType</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_atk1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_atk2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_atk3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_atk4.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_atk5.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_skill3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_skill2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AssetBundles/Prefabs/GameMain/PrefabFX/DarkGodFx/dagger_skill1.prefab</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,56 +662,56 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -770,28 +770,28 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -811,28 +811,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -852,28 +852,28 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -893,28 +893,28 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -946,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -987,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1028,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1069,16 +1069,16 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1108,14 +1108,14 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1145,14 +1145,14 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
